--- a/Polarisation90.xlsx
+++ b/Polarisation90.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudoitmc-my.sharepoint.com/personal/celina_kortmann_study_tu-dortmund_de/Documents/Dokumente/Studium/Anfängerpraktikum/V407----Fresnelsche-Formeln/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\Physik\Grundpraktikum 2\V407----Fresnelsche-Formeln\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B83139C-2B1B-4262-9C01-9D3C6A2C8768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0285F20-0FD2-4C9D-A0EF-7F3045365FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{EF1A5255-145B-479F-BC38-FEAA1AD801F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EF1A5255-145B-479F-BC38-FEAA1AD801F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>alpha</t>
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>E Strich</t>
+  </si>
+  <si>
+    <t>n Strich</t>
   </si>
 </sst>
 </file>
@@ -393,348 +405,700 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF7EC9F-AB7E-483F-B98B-901B3CF12370}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
       <c r="B2">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <f>SQRT(B2/200)</f>
+        <v>0.51961524227066325</v>
+      </c>
+      <c r="D2">
+        <f>SQRT(1+(4*C2*(COS(A2))^2)/((C2-1)^2))</f>
+        <v>3.0501600738094576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8</v>
       </c>
       <c r="B3">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <f t="shared" ref="C3:C42" si="0">SQRT(B3/200)</f>
+        <v>0.51961524227066325</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D42" si="1">SQRT(1+(4*C3*(COS(A3))^2)/((C3-1)^2))</f>
+        <v>1.0911797222052877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
       <c r="B4">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.51961524227066325</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>2.7094378245826487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12</v>
       </c>
       <c r="B5">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.51478150704935</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>2.6884785853721254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14</v>
       </c>
       <c r="B6">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.50990195135927852</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>1.0764593778681435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16</v>
       </c>
       <c r="B7">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>2.8873679090178381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>18</v>
       </c>
       <c r="B8">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>2.1185243075051985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20</v>
       </c>
       <c r="B9">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>1.5271698508649758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>22</v>
       </c>
       <c r="B10">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.49497474683058329</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>2.9600952768913231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>24</v>
       </c>
       <c r="B11">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.4898979485566356</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>1.5346116191584009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>26</v>
       </c>
       <c r="B12">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.47434164902525688</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>1.9681766685658242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>28</v>
       </c>
       <c r="B13">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.46904157598234297</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>2.6770546736487515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>30</v>
       </c>
       <c r="B14">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.46904157598234297</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>1.0762651275000454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>32</v>
       </c>
       <c r="B15">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.46368092477478517</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>2.342525842585212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>34</v>
       </c>
       <c r="B16">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.45276925690687081</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>2.314051360979243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>36</v>
       </c>
       <c r="B17">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.43011626335213132</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>1.0424708515932095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>38</v>
       </c>
       <c r="B18">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0.44158804331639234</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>2.4833520382643126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>40</v>
       </c>
       <c r="B19">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0.43588989435406733</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>1.8539518690311405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>42</v>
       </c>
       <c r="B20">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0.42426406871192851</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>1.3487406725705824</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>44</v>
       </c>
       <c r="B21">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0.41231056256176607</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>2.402846634495484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>46</v>
       </c>
       <c r="B22">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>1.3528205531733082</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>48</v>
       </c>
       <c r="B23">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0.3872983346207417</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>1.6404501666090965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>50</v>
       </c>
       <c r="B24">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0.38078865529319539</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>2.1677292861501511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>52</v>
       </c>
       <c r="B25">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0.36055512754639896</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>1.0458023598231496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>54</v>
       </c>
       <c r="B26">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0.33166247903553997</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>1.7443251731755174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>56</v>
       </c>
       <c r="B27">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0.33166247903553997</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>1.7782449023012861</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>58</v>
       </c>
       <c r="B28">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0.31622776601683794</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>1.0190327461494912</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>60</v>
       </c>
       <c r="B29">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>0.29154759474226505</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>1.7628530970566143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>62</v>
       </c>
       <c r="B30">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0.26457513110645908</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>1.3738992110703327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>64</v>
       </c>
       <c r="B31">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>0.22360679774997896</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>1.1080811481988093</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>66</v>
       </c>
       <c r="B32">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>1.4997062363259661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>68</v>
       </c>
       <c r="B33">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>0.18303005217723128</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>1.1011355419237512</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>70</v>
       </c>
       <c r="B34">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>0.15165750888103102</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>1.1567565365213985</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>72</v>
       </c>
       <c r="B35">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0.11180339887498948</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>1.2370791882192287</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>74</v>
       </c>
       <c r="B36">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>8.3666002653407553E-2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>1.0058590783729686</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>76</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>7.0710678118654752E-2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>1.1056942594435883</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>78</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>1.1676347616792726</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>80</v>
       </c>
       <c r="B39">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>0.161245154965971</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>1.0055702729638873</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>82</v>
       </c>
       <c r="B40">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>0.2449489742783178</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>1.5968761809487826</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>84</v>
       </c>
       <c r="B41">
         <v>22</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>0.33166247903553997</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>1.5406001525371138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>86</v>
       </c>
       <c r="B42">
         <v>46</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>0.47958315233127197</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>1.4292657721267068</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <f>SUM(C2:C42)/40</f>
+        <v>0.37369193655097727</v>
+      </c>
+      <c r="D45">
+        <f>SUM(D2:D42)/40</f>
+        <v>1.749808422781991</v>
       </c>
     </row>
   </sheetData>

--- a/Polarisation90.xlsx
+++ b/Polarisation90.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\Physik\Grundpraktikum 2\V407----Fresnelsche-Formeln\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudoitmc-my.sharepoint.com/personal/celina_kortmann_study_tu-dortmund_de/Documents/Dokumente/Studium/Anfängerpraktikum/V407----Fresnelsche-Formeln/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0285F20-0FD2-4C9D-A0EF-7F3045365FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{A0285F20-0FD2-4C9D-A0EF-7F3045365FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1769D068-4BA6-4E24-9666-7DBCA1011DDB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EF1A5255-145B-479F-BC38-FEAA1AD801F4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{EF1A5255-145B-479F-BC38-FEAA1AD801F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -407,13 +407,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF7EC9F-AB7E-483F-B98B-901B3CF12370}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>6</v>
       </c>
@@ -435,15 +435,11 @@
         <v>54</v>
       </c>
       <c r="C2">
-        <f>SQRT(B2/200)</f>
-        <v>0.51961524227066325</v>
-      </c>
-      <c r="D2">
-        <f>SQRT(1+(4*C2*(COS(A2))^2)/((C2-1)^2))</f>
-        <v>3.0501600738094576</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <f>SQRT(B2/140)</f>
+        <v>0.62105900340811881</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>8</v>
       </c>
@@ -451,15 +447,15 @@
         <v>54</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C42" si="0">SQRT(B3/200)</f>
-        <v>0.51961524227066325</v>
+        <f t="shared" ref="C3:C42" si="0">SQRT(B3/140)</f>
+        <v>0.62105900340811881</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D42" si="1">SQRT(1+(4*C3*(COS(A3))^2)/((C3-1)^2))</f>
-        <v>1.0911797222052877</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.1688663315744852</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>10</v>
       </c>
@@ -468,14 +464,14 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>0.51961524227066325</v>
+        <v>0.62105900340811881</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>2.7094378245826487</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.6304283216759967</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>12</v>
       </c>
@@ -484,14 +480,14 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0.51478150704935</v>
+        <v>0.61528158478165795</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>2.6884785853721254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.5834118949322926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>14</v>
       </c>
@@ -500,14 +496,14 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.50990195135927852</v>
+        <v>0.60944940022004401</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>1.0764593778681435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.1396599101194891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>16</v>
       </c>
@@ -516,14 +512,14 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.59761430466719678</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>2.8873679090178381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.813133023456809</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>18</v>
       </c>
@@ -532,14 +528,14 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.59761430466719678</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>2.1185243075051985</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.7271324819051457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>20</v>
       </c>
@@ -548,14 +544,14 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.59761430466719678</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>1.5271698508649758</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.8597357923463418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>22</v>
       </c>
@@ -564,14 +560,14 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0.49497474683058329</v>
+        <v>0.59160797830996159</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>2.9600952768913231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.8971127001070549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>24</v>
       </c>
@@ -580,14 +576,14 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>0.4898979485566356</v>
+        <v>0.58554004376911994</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>1.5346116191584009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.8583043463603368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>26</v>
       </c>
@@ -596,14 +592,14 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0.47434164902525688</v>
+        <v>0.56694670951384085</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>1.9681766685658242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.4618706663007468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>28</v>
       </c>
@@ -612,14 +608,14 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>0.46904157598234297</v>
+        <v>0.56061191058138804</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>2.6770546736487515</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4296847928279353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>30</v>
       </c>
@@ -628,14 +624,14 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>0.46904157598234297</v>
+        <v>0.56061191058138804</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>1.0762651275000454</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.1297635930333223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>32</v>
       </c>
@@ -644,14 +640,14 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>0.46368092477478517</v>
+        <v>0.55420470689345214</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>2.342525842585212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.9602194244793827</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>34</v>
       </c>
@@ -660,14 +656,14 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>0.45276925690687081</v>
+        <v>0.541162769282166</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>2.314051360979243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.8989059981867613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>36</v>
       </c>
@@ -676,14 +672,14 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0.43011626335213132</v>
+        <v>0.51408726329847376</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>1.0424708515932095</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0689299541884811</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>38</v>
       </c>
@@ -692,14 +688,14 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>0.44158804331639234</v>
+        <v>0.5277986629117476</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>2.4833520382643126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.1043026275747168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>40</v>
       </c>
@@ -708,14 +704,14 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>0.43588989435406733</v>
+        <v>0.52098807225172772</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>1.8539518690311405</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.2449628517751106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>42</v>
       </c>
@@ -724,14 +720,14 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>0.42426406871192851</v>
+        <v>0.50709255283710997</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>1.3487406725705824</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.5282953140078117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>44</v>
       </c>
@@ -740,14 +736,14 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>0.41231056256176607</v>
+        <v>0.49280538030458115</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>2.402846634495484</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.9428515528792194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>46</v>
       </c>
@@ -756,14 +752,14 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.47809144373375745</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>1.3528205531733082</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.52030125485184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>48</v>
       </c>
@@ -772,14 +768,14 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>0.3872983346207417</v>
+        <v>0.46291004988627571</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>1.6404501666090965</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.9053554098139289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>50</v>
       </c>
@@ -788,14 +784,14 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>0.38078865529319539</v>
+        <v>0.45512949491639976</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>2.1677292861501511</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.5903574155495988</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>52</v>
       </c>
@@ -804,14 +800,14 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>0.36055512754639896</v>
+        <v>0.43094580368566732</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>1.0458023598231496</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0683711669276483</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>54</v>
       </c>
@@ -820,14 +816,14 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>0.33166247903553997</v>
+        <v>0.39641248358604592</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>1.7443251731755174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.998341887732745</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>56</v>
       </c>
@@ -836,14 +832,14 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>0.33166247903553997</v>
+        <v>0.39641248358604592</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>1.7782449023012861</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0416820217952605</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>58</v>
       </c>
@@ -852,14 +848,14 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>0.31622776601683794</v>
+        <v>0.3779644730092272</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>1.0190327461494912</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.02737500786939</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>60</v>
       </c>
@@ -868,14 +864,14 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>0.29154759474226505</v>
+        <v>0.3484660262185848</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>1.7628530970566143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.9946165682398984</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>62</v>
       </c>
@@ -884,14 +880,14 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>0.26457513110645908</v>
+        <v>0.31622776601683794</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>1.3738992110703327</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.4923864794080706</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>64</v>
       </c>
@@ -900,14 +896,14 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>0.22360679774997896</v>
+        <v>0.2672612419124244</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>1.1080811481988093</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.142690152148544</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>66</v>
       </c>
@@ -916,14 +912,14 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.23904572186687872</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>1.4997062363259661</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.6279213010682136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>68</v>
       </c>
@@ -932,14 +928,14 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>0.18303005217723128</v>
+        <v>0.21876275473019363</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>1.1011355419237512</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.1303763463691747</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>70</v>
       </c>
@@ -948,14 +944,14 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>0.15165750888103102</v>
+        <v>0.18126539343499315</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>1.1567565365213985</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.1974323827506803</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>72</v>
       </c>
@@ -964,14 +960,14 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>0.11180339887498948</v>
+        <v>0.1336306209562122</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>1.2370791882192287</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.2908334045224952</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>74</v>
       </c>
@@ -980,14 +976,14 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>8.3666002653407553E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>1.0058590783729686</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0072543895054462</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>76</v>
       </c>
@@ -996,14 +992,14 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>7.0710678118654752E-2</v>
+        <v>8.4515425472851652E-2</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>1.1056942594435883</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.1287571640187135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>78</v>
       </c>
@@ -1012,14 +1008,14 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.11952286093343936</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>1.1676347616792726</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.2057300184193482</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>80</v>
       </c>
@@ -1028,14 +1024,14 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>0.161245154965971</v>
+        <v>0.19272482233188631</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>1.0055702729638873</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.007181342105357</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>82</v>
       </c>
@@ -1044,14 +1040,14 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>0.2449489742783178</v>
+        <v>0.29277002188455997</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>1.5968761809487826</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.7639811944407944</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>84</v>
       </c>
@@ -1060,14 +1056,14 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>0.33166247903553997</v>
+        <v>0.39641248358604592</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>1.5406001525371138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.7357072439043852</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>86</v>
       </c>
@@ -1076,14 +1072,14 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>0.47958315233127197</v>
+        <v>0.57321150422111089</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>1.4292657721267068</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.6891509733522807</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -1091,14 +1087,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C45">
         <f>SUM(C2:C42)/40</f>
-        <v>0.37369193655097727</v>
+        <v>0.44664729364330108</v>
       </c>
       <c r="D45">
         <f>SUM(D2:D42)/40</f>
-        <v>1.749808422781991</v>
+        <v>1.975334367563131</v>
       </c>
     </row>
   </sheetData>

--- a/Polarisation90.xlsx
+++ b/Polarisation90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudoitmc-my.sharepoint.com/personal/celina_kortmann_study_tu-dortmund_de/Documents/Dokumente/Studium/Anfängerpraktikum/V407----Fresnelsche-Formeln/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{A0285F20-0FD2-4C9D-A0EF-7F3045365FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1769D068-4BA6-4E24-9666-7DBCA1011DDB}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{A0285F20-0FD2-4C9D-A0EF-7F3045365FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B61261A-90C2-47C3-A47A-CF31B19FE695}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{EF1A5255-145B-479F-BC38-FEAA1AD801F4}"/>
   </bookViews>
@@ -106,6 +106,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF7EC9F-AB7E-483F-B98B-901B3CF12370}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -438,6 +442,9 @@
         <f>SQRT(B2/140)</f>
         <v>0.62105900340811881</v>
       </c>
+      <c r="D2">
+        <v>4.4498990000000003</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -451,8 +458,7 @@
         <v>0.62105900340811881</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D42" si="1">SQRT(1+(4*C3*(COS(A3))^2)/((C3-1)^2))</f>
-        <v>1.1688663315744852</v>
+        <v>29.39086</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -467,8 +473,7 @@
         <v>0.62105900340811881</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
-        <v>3.6304283216759967</v>
+        <v>5.0802690000000004</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -483,8 +488,7 @@
         <v>0.61528158478165795</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
-        <v>3.5834118949322926</v>
+        <v>4.9574389999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -499,8 +503,7 @@
         <v>0.60944940022004401</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
-        <v>1.1396599101194891</v>
+        <v>30.127796</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -515,8 +518,7 @@
         <v>0.59761430466719678</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
-        <v>3.813133023456809</v>
+        <v>4.1396139999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -531,8 +533,7 @@
         <v>0.59761430466719678</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
-        <v>2.7271324819051457</v>
+        <v>5.9830829999999997</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -547,8 +548,7 @@
         <v>0.59761430466719678</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
-        <v>1.8597357923463418</v>
+        <v>9.7023089999999996</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -563,8 +563,7 @@
         <v>0.59160797830996159</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
-        <v>3.8971127001070549</v>
+        <v>3.897402</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -579,8 +578,7 @@
         <v>0.58554004376911994</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
-        <v>1.8583043463603368</v>
+        <v>8.9898260000000008</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -595,8 +593,7 @@
         <v>0.56694670951384085</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
-        <v>2.4618706663007468</v>
+        <v>5.559552</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -611,8 +608,7 @@
         <v>0.56061191058138804</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
-        <v>3.4296847928279353</v>
+        <v>3.68336</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -627,8 +623,7 @@
         <v>0.56061191058138804</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
-        <v>1.1297635930333223</v>
+        <v>23.012338</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -643,8 +638,7 @@
         <v>0.55420470689345214</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
-        <v>2.9602194244793827</v>
+        <v>4.1554310000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -659,8 +653,7 @@
         <v>0.541162769282166</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
-        <v>2.8989059981867613</v>
+        <v>3.934955</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -675,8 +668,7 @@
         <v>0.51408726329847376</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
-        <v>1.0689299541884811</v>
+        <v>24.337029000000001</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -691,8 +683,7 @@
         <v>0.5277986629117476</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
-        <v>3.1043026275747168</v>
+        <v>3.3791380000000002</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -707,8 +698,7 @@
         <v>0.52098807225172772</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
-        <v>2.2449628517751106</v>
+        <v>4.7218200000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -723,8 +713,7 @@
         <v>0.50709255283710997</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
-        <v>1.5282953140078117</v>
+        <v>7.607272</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -739,8 +728,7 @@
         <v>0.49280538030458115</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
-        <v>2.9428515528792194</v>
+        <v>2.9436849999999999</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -755,8 +743,7 @@
         <v>0.47809144373375745</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
-        <v>1.52030125485184</v>
+        <v>6.5103920000000004</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -771,8 +758,7 @@
         <v>0.46291004988627571</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
-        <v>1.9053554098139289</v>
+        <v>4.2061364000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -787,8 +773,7 @@
         <v>0.45512949491639976</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
-        <v>2.5903574155495988</v>
+        <v>2.7589410000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -803,8 +788,7 @@
         <v>0.43094580368566732</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
-        <v>1.0683711669276483</v>
+        <v>15.405763200000001</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -819,8 +803,7 @@
         <v>0.39641248358604592</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
-        <v>1.998341887732745</v>
+        <v>2.748084</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -835,8 +818,7 @@
         <v>0.39641248358604592</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
-        <v>2.0416820217952605</v>
+        <v>2.6743366000000002</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -851,8 +833,7 @@
         <v>0.3779644730092272</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
-        <v>1.02737500786939</v>
+        <v>18.568118999999999</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -867,8 +848,7 @@
         <v>0.3484660262185848</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
-        <v>1.9946165682398984</v>
+        <v>2.1569379999999998</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -883,8 +863,7 @@
         <v>0.31622776601683794</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
-        <v>1.4923864794080706</v>
+        <v>2.7802980000000002</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -899,8 +878,7 @@
         <v>0.2672612419124244</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
-        <v>1.142690152148544</v>
+        <v>4.3343929699999997</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -915,8 +893,7 @@
         <v>0.23904572186687872</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
-        <v>1.6279213010682136</v>
+        <v>1.6286780000000001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -931,8 +908,7 @@
         <v>0.21876275473019363</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
-        <v>1.1303763463691747</v>
+        <v>3.4441440000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -947,8 +923,7 @@
         <v>0.18126539343499315</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
-        <v>1.1974323827506803</v>
+        <v>2.1495250000000001</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -963,8 +938,7 @@
         <v>0.1336306209562122</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
-        <v>1.2908334045224952</v>
+        <v>1.330908</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -979,8 +953,7 @@
         <v>0.1</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
-        <v>1.0072543895054462</v>
+        <v>7.0542604000000004</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -995,8 +968,7 @@
         <v>8.4515425472851652E-2</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
-        <v>1.1287571640187135</v>
+        <v>1.3068618999999999</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -1011,8 +983,7 @@
         <v>0.11952286093343936</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
-        <v>1.2057300184193482</v>
+        <v>1.3886145999999999</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1027,8 +998,7 @@
         <v>0.19272482233188631</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
-        <v>1.007181342105357</v>
+        <v>13.353306999999999</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -1043,8 +1013,7 @@
         <v>0.29277002188455997</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
-        <v>1.7639811944407944</v>
+        <v>1.9045521999999999</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1059,8 +1028,7 @@
         <v>0.39641248358604592</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
-        <v>1.7357072439043852</v>
+        <v>3.3430105000000001</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1075,8 +1043,7 @@
         <v>0.57321150422111089</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
-        <v>1.6891509733522807</v>
+        <v>9.5785029999999995</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -1094,7 +1061,7 @@
       </c>
       <c r="D45">
         <f>SUM(D2:D42)/40</f>
-        <v>1.975334367563131</v>
+        <v>7.4669710692499978</v>
       </c>
     </row>
   </sheetData>
